--- a/xlsx/德裔美国人_intext.xlsx
+++ b/xlsx/德裔美国人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t>德裔美国人</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%87%B7%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA</t>
   </si>
   <si>
-    <t>德懷特·艾森豪</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_德裔美国人</t>
+    <t>德怀特·艾森豪</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_德裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%AF%94%C2%B7%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>貝比·魯斯</t>
+    <t>贝比·鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%B0%BC%E7%B1%B3%E5%85%B9</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%C2%B7%E5%8F%B2%E7%93%A6%E8%8C%B2%E6%9F%AF%E5%A4%AB</t>
   </si>
   <si>
-    <t>諾曼·史瓦茲柯夫</t>
+    <t>诺曼·史瓦兹柯夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7D%C2%B7%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E6%96%AF%C2%B7%E5%A8%81%E5%88%A9</t>
   </si>
   <si>
-    <t>布魯斯·威利</t>
+    <t>布鲁斯·威利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>美式英語</t>
+    <t>美式英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E6%B4%BE</t>
   </si>
   <si>
-    <t>門諾派</t>
+    <t>门诺派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E4%BB%80</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
@@ -239,13 +236,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>美國人口</t>
+    <t>美国人口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%9E%97%E5%A4%A7%E6%A1%A5</t>
@@ -299,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E6%A0%BC%E7%BE%85%E4%BD%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>沃爾特·格羅佩斯</t>
+    <t>沃尔特·格罗佩斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E6%A0%BC%E4%BD%A9%E7%89%B9-%E6%A2%85%E8%80%B6</t>
@@ -317,9 +311,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%AF%94%C2%B7%E9%B2%81%E6%96%AF</t>
   </si>
   <si>
-    <t>贝比·鲁斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%C2%B7%E6%A0%BC%E9%87%8C%E5%85%8B</t>
   </si>
   <si>
@@ -347,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E5%93%88%E5%A1%9E%E7%88%BE%E9%9C%8D%E5%A4%AB</t>
   </si>
   <si>
-    <t>大衛·哈塞爾霍夫</t>
+    <t>大卫·哈塞尔霍夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E7%90%B3%C2%B7%E9%BB%9B%E5%BE%B7%E9%BA%97</t>
   </si>
   <si>
-    <t>瑪琳·黛德麗</t>
+    <t>玛琳·黛德丽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%E7%BA%B3%E5%A4%9A%C2%B7%E8%BF%AA%E5%8D%A1%E6%99%AE%E9%87%8C%E5%A5%A5</t>
@@ -377,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%96%AF%E6%B1%80%C2%B7%E9%84%A7%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>克斯汀·鄧斯特</t>
+    <t>克斯汀·邓斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -389,9 +380,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
   </si>
   <si>
-    <t>英格兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
@@ -407,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%9D%E9%9D%92</t>
   </si>
   <si>
-    <t>瀝青</t>
+    <t>沥青</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E6%B2%B9</t>
@@ -461,9 +449,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E8%AF%BA%E6%B4%BE</t>
   </si>
   <si>
-    <t>门诺派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E5%B0%94%E8%8C%A8</t>
   </si>
   <si>
@@ -503,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>獨立戰爭</t>
+    <t>独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%A3%94%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
@@ -611,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%BB%B4%E5%B0%94</t>
@@ -785,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>日裔美國人</t>
+    <t>日裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%9B%9A%E7%A6%81</t>
   </si>
   <si>
-    <t>日裔美國人囚禁</t>
+    <t>日裔美国人囚禁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
+    <t>美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E6%96%AF%E7%89%B9%C2%B7%E5%B0%BC%E7%B1%B3%E5%85%B9</t>
@@ -821,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E6%96%AF%E5%B8%95%E8%8C%A8</t>
   </si>
   <si>
-    <t>卡爾·安德魯·斯帕茨</t>
+    <t>卡尔·安德鲁·斯帕茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
+    <t>美国陆军航空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -911,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>大陸軍</t>
+    <t>大陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%86%9B%E9%98%9F</t>
@@ -929,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9C%96%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>斯圖貝克</t>
+    <t>斯图贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8%E9%95%BF</t>
@@ -953,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%96%99%E7%90%86</t>
   </si>
   <si>
-    <t>德國料理</t>
+    <t>德国料理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%99%E7%90%86</t>
   </si>
   <si>
-    <t>美國料理</t>
+    <t>美国料理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%82%A0</t>
@@ -977,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E9%A6%99%E8%85%B8</t>
   </si>
   <si>
-    <t>法蘭克福香腸</t>
+    <t>法兰克福香肠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%A0%A1%E5%8C%85</t>
@@ -995,13 +980,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%A4%A1%E5%8D%B7</t>
   </si>
   <si>
-    <t>果餡卷</t>
+    <t>果馅卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%92%E9%B9%BD%E5%8D%B7%E9%A4%85</t>
   </si>
   <si>
-    <t>椒鹽卷餅</t>
+    <t>椒盐卷饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -1019,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
@@ -1037,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E9%98%BF%E6%B3%A2%E5%88%A9%E6%96%AF%E2%80%94%E8%81%96%E4%BF%9D%E7%BE%85%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>明尼阿波利斯—聖保羅都會區</t>
+    <t>明尼阿波利斯—圣保罗都会区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/German_language_in_the_United_States</t>
@@ -1055,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%BE%8E%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>德美關係</t>
+    <t>德美关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -1073,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐裔美國人</t>
+    <t>欧裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1103,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>俄羅斯裔美國人</t>
+    <t>俄罗斯裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1145,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>英格蘭裔美國人</t>
+    <t>英格兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1157,13 +1142,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E8%BF%AA%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿卡迪亞</t>
+    <t>阿卡迪亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%93%8A%E4%BA%BA</t>
   </si>
   <si>
-    <t>肯瓊人</t>
+    <t>肯琼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A5%A5%E5%B0%94%E4%BA%BA</t>
@@ -1175,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2399,7 +2384,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
         <v>108</v>
@@ -2425,10 +2410,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2454,10 +2439,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2483,10 +2468,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>91</v>
@@ -2512,10 +2497,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>16</v>
@@ -2541,10 +2526,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2570,10 +2555,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2599,10 +2584,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2628,10 +2613,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>17</v>
@@ -2657,10 +2642,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>6</v>
@@ -2686,10 +2671,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>13</v>
@@ -2715,10 +2700,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2744,10 +2729,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2773,10 +2758,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -2802,10 +2787,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2831,10 +2816,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2860,10 +2845,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2889,10 +2874,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2918,10 +2903,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2947,10 +2932,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2976,10 +2961,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3005,10 +2990,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3034,10 +3019,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3063,10 +3048,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3092,10 +3077,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3121,10 +3106,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3150,10 +3135,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3179,10 +3164,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3208,10 +3193,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3237,10 +3222,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3266,10 +3251,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3295,10 +3280,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>3</v>
@@ -3324,10 +3309,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3353,10 +3338,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3382,10 +3367,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -3411,10 +3396,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3440,10 +3425,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3469,10 +3454,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3498,10 +3483,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3527,10 +3512,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3556,10 +3541,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3585,10 +3570,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3614,10 +3599,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3643,10 +3628,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -3672,10 +3657,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3701,10 +3686,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3730,10 +3715,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3759,10 +3744,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3788,10 +3773,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3817,10 +3802,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3846,10 +3831,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3875,10 +3860,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3904,10 +3889,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3933,10 +3918,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3962,10 +3947,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3991,10 +3976,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4020,10 +4005,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -4049,10 +4034,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4078,10 +4063,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4107,10 +4092,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>6</v>
@@ -4136,10 +4121,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>6</v>
@@ -4165,10 +4150,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4194,10 +4179,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4223,10 +4208,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4252,10 +4237,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4281,10 +4266,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4310,10 +4295,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4339,10 +4324,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4368,10 +4353,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4397,10 +4382,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4426,10 +4411,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4455,10 +4440,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4484,10 +4469,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4513,10 +4498,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -4542,10 +4527,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4571,10 +4556,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4600,10 +4585,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4629,10 +4614,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4658,10 +4643,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4687,10 +4672,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4716,10 +4701,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4745,10 +4730,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4774,10 +4759,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4803,10 +4788,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4832,10 +4817,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4861,10 +4846,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4890,10 +4875,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4919,10 +4904,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4948,10 +4933,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4977,10 +4962,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5006,10 +4991,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5035,10 +5020,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5064,10 +5049,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5093,10 +5078,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5122,10 +5107,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5151,10 +5136,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5180,10 +5165,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5209,10 +5194,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5238,10 +5223,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5267,10 +5252,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5296,10 +5281,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5325,10 +5310,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5354,10 +5339,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5383,10 +5368,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5412,10 +5397,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5441,10 +5426,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5470,10 +5455,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5499,10 +5484,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>4</v>
@@ -5528,10 +5513,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5557,10 +5542,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5586,10 +5571,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5615,10 +5600,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5644,10 +5629,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5673,10 +5658,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -5702,10 +5687,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5731,10 +5716,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5760,10 +5745,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5789,10 +5774,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5818,10 +5803,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5847,10 +5832,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5876,10 +5861,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5905,10 +5890,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5934,10 +5919,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5963,10 +5948,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5992,10 +5977,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6021,10 +6006,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6050,10 +6035,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6079,10 +6064,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6108,10 +6093,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6137,10 +6122,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -6166,10 +6151,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6195,10 +6180,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6224,10 +6209,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6253,10 +6238,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6282,10 +6267,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6311,10 +6296,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6340,10 +6325,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6369,10 +6354,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6398,10 +6383,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6427,10 +6412,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6456,10 +6441,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6485,10 +6470,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6514,10 +6499,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6543,10 +6528,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6572,10 +6557,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6601,10 +6586,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -6630,10 +6615,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -6659,10 +6644,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6688,10 +6673,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6717,10 +6702,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6746,10 +6731,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6775,10 +6760,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6804,10 +6789,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -6833,10 +6818,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6862,10 +6847,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6891,10 +6876,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6920,10 +6905,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6949,10 +6934,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6978,10 +6963,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7007,10 +6992,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7036,10 +7021,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7065,10 +7050,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7094,10 +7079,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F192" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7123,10 +7108,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F193" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -7152,10 +7137,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F194" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7181,10 +7166,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F195" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
